--- a/customSim/LES/systemDefinition/Product.xlsx
+++ b/customSim/LES/systemDefinition/Product.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:P1"/>
+  <dimension ref="B1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,60 +451,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>product_family</t>
+          <t>type</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>sourcing</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>sourcing</t>
+          <t>cost</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>cost</t>
+          <t>features</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>upstream_processes</t>
+          <t>skills</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>downstream_processes</t>
+          <t>contents</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>features</t>
+          <t>dimensions</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>skills</t>
+          <t>specifications</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>contents</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>dimensions</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>specifications</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>kwargs</t>
         </is>

--- a/customSim/LES/systemDefinition/Product.xlsx
+++ b/customSim/LES/systemDefinition/Product.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:M1"/>
+  <dimension ref="B1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,11 +489,6 @@
           <t>specifications</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>kwargs</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/customSim/LES/systemDefinition/Product.xlsx
+++ b/customSim/LES/systemDefinition/Product.xlsx
@@ -2,28 +2,32 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="1710" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -37,12 +41,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -55,14 +74,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -425,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:L1"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,59 +456,871 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>env</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>sourcing</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>cost</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>features</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>skills</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>contents</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>dimensions</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>specifications</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>prod_1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>product_1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>sub_assy</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>in_house</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>prod_2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>product_2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>component</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>off_the_shelf</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>prod_3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>product_3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>in_house</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>9</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>prod_4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>product_4</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>sub_assy</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>in_house</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>prod_5</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>product_5</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>component</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>in_house</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>prod_6</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>product_6</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>in_house</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>6</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>prod_7</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>product_7</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>sub_assy</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>in_house</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>prod_8</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>product_8</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>component</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>off_the_shelf</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>prod_9</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>product_9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>in_house</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>8</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>prod_10</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>product_10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>sub_assy</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>in_house</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>8</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>prod_11</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>product_11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>component</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>off_the_shelf</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>prod_12</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>product_12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>in_house</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>5</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>prod_13</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>product_13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>sub_assy</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>in_house</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>6</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>prod_14</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>product_14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>component</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>off_the_shelf</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>6</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>{}</t>
         </is>
       </c>
     </row>
